--- a/olxdata.xlsx
+++ b/olxdata.xlsx
@@ -458,66 +458,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2014 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹ 7,75,000</t>
+          <t>₹ 5,45,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60,000 km</t>
+          <t xml:space="preserve"> 28,000 km</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dadar West</t>
+          <t>Vile Parle East</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2015 </t>
+          <t xml:space="preserve">2018 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹ 6,50,000</t>
+          <t>₹ 7,75,000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,623 km</t>
+          <t xml:space="preserve"> 43,996 km</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vile Parle West</t>
+          <t>Bandra West</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2014 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹ 7,11,000</t>
+          <t>₹ 6,65,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51,187 km</t>
+          <t xml:space="preserve"> 58,000 km</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Sion East</t>
         </is>
       </c>
     </row>
@@ -529,56 +529,56 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹ 2,84,000</t>
+          <t>₹ 2,50,000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80,000 km</t>
+          <t xml:space="preserve"> 120,000 km</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Santacruz East</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014 </t>
+          <t xml:space="preserve">2011 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹ 4,80,000</t>
+          <t>₹ 2,84,000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70,000 km</t>
+          <t xml:space="preserve"> 80,000 km</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Chembur</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2015 </t>
+          <t xml:space="preserve">2013 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹ 5,89,000</t>
+          <t>₹ 4,65,000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 78000.0 km</t>
+          <t xml:space="preserve"> 65,000 km</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,127 +590,127 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014 </t>
+          <t xml:space="preserve">2018 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹ 4,95,000</t>
+          <t>₹ 8,91,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,000 km</t>
+          <t xml:space="preserve"> 21,000 km</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Santacruz West</t>
+          <t>Wadala West</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2011 </t>
+          <t xml:space="preserve">2016 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹ 2,99,999</t>
+          <t>₹ 6,50,000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 84000.0 km</t>
+          <t xml:space="preserve"> 66,000 km</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Wadala West</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2018 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹ 5,85,000</t>
+          <t>₹ 8,65,000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90,000 km</t>
+          <t xml:space="preserve"> 40,551 km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Matunga Road</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022 </t>
+          <t xml:space="preserve">2017 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹ 13,50,000</t>
+          <t>₹ 7,95,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,643 km</t>
+          <t xml:space="preserve"> 45,000 km</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Santacruz West</t>
+          <t>Kurla West</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021 </t>
+          <t xml:space="preserve">2010 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹ 13,40,000</t>
+          <t>₹ 2,45,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,000 km</t>
+          <t xml:space="preserve"> 95,000 km</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Dadar West</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021 </t>
+          <t xml:space="preserve">2016 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>₹ 13,40,000</t>
+          <t>₹ 6,25,000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,000 km</t>
+          <t xml:space="preserve"> 41,000 km</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,39 +722,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2017 </t>
+          <t xml:space="preserve">2015 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹ 6,95,000</t>
+          <t>₹ 5,65,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,000 km</t>
+          <t xml:space="preserve"> 65,000 km</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Sion West</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2017 </t>
+          <t xml:space="preserve">2015 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹ 6,25,000</t>
+          <t>₹ 5,35,000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,000 km</t>
+          <t xml:space="preserve"> 47399.0 km</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,61 +766,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2011 </t>
+          <t xml:space="preserve">2004 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹ 2,50,000</t>
+          <t>₹ 1,10,000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,385 km</t>
+          <t xml:space="preserve"> 133,000 km</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Kurla East</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">2009 </t>
+          <t xml:space="preserve">2012 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹ 2,20,000</t>
+          <t>₹ 3,75,000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,889 km</t>
+          <t xml:space="preserve"> 64,000 km</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Vatsalabai Naik Nagar</t>
+          <t>Vile Parle West</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">2017 </t>
+          <t xml:space="preserve">2009 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹ 8,95,000</t>
+          <t>₹ 1,99,000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41631.0 km</t>
+          <t xml:space="preserve"> 75,000 km</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,83 +832,83 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2011 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹ 7,25,000</t>
+          <t>₹ 2,90,000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62,441 km</t>
+          <t xml:space="preserve"> 65,000 km</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>VSNL Colony</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2015 </t>
+          <t xml:space="preserve">2017 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹ 5,90,000</t>
+          <t>₹ 7,11,000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75258.0 km</t>
+          <t xml:space="preserve"> 58,000 km</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Bandra West</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">2018 </t>
+          <t xml:space="preserve">2016 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>₹ 8,25,000</t>
+          <t>₹ 5,99,999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,000 km</t>
+          <t xml:space="preserve"> 84000.0 km</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Santacruz West</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014 </t>
+          <t xml:space="preserve">2016 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹ 5,45,000</t>
+          <t>₹ 6,85,001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49,000 km</t>
+          <t xml:space="preserve"> 37,000 km</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,44 +920,44 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014 </t>
+          <t xml:space="preserve">2012 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹ 4,75,000</t>
+          <t>₹ 3,55,000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57,000 km</t>
+          <t xml:space="preserve"> 69,707 km</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sion East</t>
+          <t>Kurla West</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">2013 </t>
+          <t xml:space="preserve">2020 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹ 4,50,000</t>
+          <t>₹ 13,40,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46,000 km</t>
+          <t xml:space="preserve"> 29,000 km</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Santacruz West</t>
         </is>
       </c>
     </row>
@@ -1008,171 +1008,171 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">2012 </t>
+          <t xml:space="preserve">2018 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>₹ 3,75,000</t>
+          <t>₹ 8,25,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57,000 km</t>
+          <t xml:space="preserve"> 45000.0 km</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Matunga Road</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2011 </t>
+          <t xml:space="preserve">2016 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>₹ 2,90,000</t>
+          <t>₹ 5,90,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,000 km</t>
+          <t xml:space="preserve"> 69000.0 km</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Khar West</t>
+          <t>Matunga Road</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2017 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>₹ 7,95,000</t>
+          <t>₹ 8,95,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,000 km</t>
+          <t xml:space="preserve"> 41638.0 km</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Chembur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">2015 </t>
+          <t xml:space="preserve">2012 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹ 6,25,000</t>
+          <t>₹ 3,55,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50,000 km</t>
+          <t xml:space="preserve"> 85,000 km</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Matunga Road</t>
+          <t>Khar West</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020 </t>
+          <t xml:space="preserve">2009 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>₹ 12,50,000</t>
+          <t>₹ 2,61,000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12,000 km</t>
+          <t xml:space="preserve"> 80,000 km</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dadar East</t>
+          <t>Santacruz West</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2017 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>₹ 7,50,000</t>
+          <t>₹ 7,75,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49,420 km</t>
+          <t xml:space="preserve"> 27235.0 km</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Chembur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020 </t>
+          <t xml:space="preserve">2012 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>₹ 12,50,000</t>
+          <t>₹ 3,91,000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12,000 km</t>
+          <t xml:space="preserve"> 87,000 km</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Matunga Road</t>
+          <t>Khar West</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">2021 </t>
+          <t xml:space="preserve">2018 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>₹ 12,49,000</t>
+          <t>₹ 10,51,000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12,000 km</t>
+          <t xml:space="preserve"> 34,000 km</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1184,44 +1184,44 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">2017 </t>
+          <t xml:space="preserve">2013 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>₹ 7,25,000</t>
+          <t>₹ 3,68,000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58,000 km</t>
+          <t xml:space="preserve"> 69,852 km</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Matunga Road</t>
+          <t>Chembur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">2015 </t>
+          <t xml:space="preserve">2017 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>₹ 5,19,999</t>
+          <t>₹ 9,45,000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89,000 km</t>
+          <t xml:space="preserve"> 47,000 km</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dadar East</t>
+          <t>Chembur</t>
         </is>
       </c>
     </row>
@@ -1233,34 +1233,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>₹ 5,78,000</t>
+          <t>₹ 6,25,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61,478 km</t>
+          <t xml:space="preserve"> 63000.0 km</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Borla</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2011 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>₹ 7,61,000</t>
+          <t>₹ 3,00,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,852 km</t>
+          <t xml:space="preserve"> 69,000 km</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,66 +1272,66 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014 </t>
+          <t xml:space="preserve">2011 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>₹ 4,99,999</t>
+          <t>₹ 3,50,000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75000.0 km</t>
+          <t xml:space="preserve"> 79,000 km</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bandra West</t>
+          <t>Vile Parle West</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">2016 </t>
+          <t xml:space="preserve">2006 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>₹ 8,00,000</t>
+          <t>₹ 1,15,000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21,367 km</t>
+          <t xml:space="preserve"> 0 km</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Vatsalabai Naik Nagar</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014 </t>
+          <t xml:space="preserve">2018 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>₹ 4,65,000</t>
+          <t>₹ 8,45,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72,000 km</t>
+          <t xml:space="preserve"> 17000.0 km</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chembur</t>
+          <t>Santacruz West</t>
         </is>
       </c>
     </row>
